--- a/group2 project/results/res_bus/p_mw.xlsx
+++ b/group2 project/results/res_bus/p_mw.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-68.23967791003423</v>
+        <v>-63.98217386585912</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-51.16113088262813</v>
+        <v>-47.10390824864518</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-37.61558588700305</v>
+        <v>-33.65105584135176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-30.45645890676801</v>
+        <v>-26.52014427338815</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-27.33884414039937</v>
+        <v>-23.41063824825042</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-27.33884414039937</v>
+        <v>-23.41063824825042</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-28.10996480735747</v>
+        <v>-24.17998305902705</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-39.25080114951624</v>
+        <v>-35.2778854612568</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-66.97577554259971</v>
+        <v>-62.73664537057897</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-93.80771666566648</v>
+        <v>-89.03170272187134</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-106.7206736264978</v>
+        <v>-101.5529673300594</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-116.831630731875</v>
+        <v>-111.2776935924006</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-118.6119365485198</v>
+        <v>-112.9815328474128</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-116.0467386132907</v>
+        <v>-110.5256570391462</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-116.0712088449514</v>
+        <v>-110.5491107230227</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-116.2274056121933</v>
+        <v>-110.6988069874626</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-107.9526940318598</v>
+        <v>-102.7419947093346</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-102.8562534930928</v>
+        <v>-97.8167048190616</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-102.8937780326681</v>
+        <v>-97.85303225053346</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-116.2425231840939</v>
+        <v>-110.7132943262683</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-129.4018818954604</v>
+        <v>-123.2442078789831</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-139.6503915650244</v>
+        <v>-132.8693568879351</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-143.5098267086237</v>
+        <v>-136.4553514534733</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-123.5938094913471</v>
+        <v>-117.7342820938041</v>
       </c>
       <c r="C25">
         <v>0</v>

--- a/group2 project/results/res_bus/p_mw.xlsx
+++ b/group2 project/results/res_bus/p_mw.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-63.98217386585912</v>
+        <v>-34.07235526768176</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-39.27027815818423</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-0.09180947066840872</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>41.85312697102461</v>
+        <v>42.70727241941287</v>
       </c>
       <c r="M2">
-        <v>41.85312697102461</v>
+        <v>42.70727241941287</v>
       </c>
       <c r="N2">
-        <v>114.144891739158</v>
+        <v>116.4743793256715</v>
       </c>
       <c r="O2">
-        <v>41.85312697102461</v>
+        <v>42.70727241941287</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-47.10390824864518</v>
+        <v>-16.84468718035663</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>-39.76939137462676</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-0.09106907171138801</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>38.98557897855949</v>
+        <v>39.78120303934642</v>
       </c>
       <c r="M3">
-        <v>38.98557897855949</v>
+        <v>39.78120303934642</v>
       </c>
       <c r="N3">
-        <v>106.3243063051622</v>
+        <v>108.4941901073084</v>
       </c>
       <c r="O3">
-        <v>38.98557897855949</v>
+        <v>39.78120303934642</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-33.65105584135176</v>
+        <v>-4.00261595342505</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-39.21276070314079</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-0.0858862790123851</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>36.68353207611065</v>
+        <v>37.43217558786801</v>
       </c>
       <c r="M4">
-        <v>36.68353207611065</v>
+        <v>37.43217558786801</v>
       </c>
       <c r="N4">
-        <v>100.0459965712109</v>
+        <v>102.0877516032764</v>
       </c>
       <c r="O4">
-        <v>36.68353207611065</v>
+        <v>37.43217558786802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-26.52014427338815</v>
+        <v>1.758325662124207</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-37.75910917540352</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-0.08681177770861837</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>35.4573860774229</v>
+        <v>36.18100620145194</v>
       </c>
       <c r="M5">
-        <v>35.4573860774229</v>
+        <v>36.18100620145194</v>
       </c>
       <c r="N5">
-        <v>96.70196202933518</v>
+        <v>98.6754714585053</v>
       </c>
       <c r="O5">
-        <v>35.45738607742291</v>
+        <v>36.18100620145194</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-23.41063824825042</v>
+        <v>3.87465396766234</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-36.68639292369173</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-0.0866266779693774</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
       <c r="M6">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
       <c r="N6">
-        <v>95.24026922344274</v>
+        <v>97.18394818718646</v>
       </c>
       <c r="O6">
-        <v>34.92143204859568</v>
+        <v>35.63411433530172</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-23.41063824825042</v>
+        <v>3.87465396766234</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-36.68639292369173</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0.0866266779693774</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
       <c r="M7">
-        <v>34.92143204859568</v>
+        <v>35.63411433530171</v>
       </c>
       <c r="N7">
-        <v>95.24026922344274</v>
+        <v>97.18394818718646</v>
       </c>
       <c r="O7">
-        <v>34.92143204859568</v>
+        <v>35.63411433530172</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-24.17998305902705</v>
+        <v>2.92670076625933</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-36.48649619468827</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-0.08366508214135138</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>35.05410862065316</v>
+        <v>35.76949859250323</v>
       </c>
       <c r="M8">
-        <v>35.05410862065316</v>
+        <v>35.76949859250323</v>
       </c>
       <c r="N8">
-        <v>95.60211441996317</v>
+        <v>97.55317797955425</v>
       </c>
       <c r="O8">
-        <v>35.05410862065315</v>
+        <v>35.76949859250323</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-35.2778854612568</v>
+        <v>-8.3802791329434</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>-36.17910782839053</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-0.08403528161986173</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>36.96268905962283</v>
+        <v>37.71702965267636</v>
       </c>
       <c r="M9">
-        <v>36.96268905962283</v>
+        <v>37.71702965267636</v>
       </c>
       <c r="N9">
-        <v>100.8073337989714</v>
+        <v>102.864626325481</v>
       </c>
       <c r="O9">
-        <v>36.96268905962285</v>
+        <v>37.71702965267636</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-62.73664537057897</v>
+        <v>-34.76599320240507</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-37.18707765529936</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0.0858862790123851</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>41.64230469659449</v>
+        <v>42.49214764958622</v>
       </c>
       <c r="M10">
-        <v>41.64230469659449</v>
+        <v>42.49214764958622</v>
       </c>
       <c r="N10">
-        <v>113.5699218998031</v>
+        <v>115.8876754079624</v>
       </c>
       <c r="O10">
-        <v>41.64230469659449</v>
+        <v>42.49214764958623</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-89.03170272187134</v>
+        <v>-60.29752499834723</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-37.89080214624073</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0.08088858605259475</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>46.06626410142444</v>
+        <v>47.00639194022902</v>
       </c>
       <c r="M11">
-        <v>46.06626410142444</v>
+        <v>47.00639194022902</v>
       </c>
       <c r="N11">
-        <v>125.6352657311575</v>
+        <v>128.1992507460791</v>
       </c>
       <c r="O11">
-        <v>46.06626410142445</v>
+        <v>47.00639194022904</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-101.5529673300594</v>
+        <v>-72.06528231819937</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>-37.58184226477783</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-1.057104610861359</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>48.15292547674984</v>
+        <v>49.13563824158147</v>
       </c>
       <c r="M12">
-        <v>48.15292547674984</v>
+        <v>49.13563824158147</v>
       </c>
       <c r="N12">
-        <v>131.3261603911359</v>
+        <v>134.006286113404</v>
       </c>
       <c r="O12">
-        <v>48.15292547674986</v>
+        <v>49.13563824158146</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-111.2776935924006</v>
+        <v>-75.35929950159148</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>-37.23736614058328</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-7.595197600678148</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>49.76455224670349</v>
+        <v>50.78015535377907</v>
       </c>
       <c r="M13">
-        <v>49.76455224670349</v>
+        <v>50.78015535377907</v>
       </c>
       <c r="N13">
-        <v>135.7215061273732</v>
+        <v>138.4913327830338</v>
       </c>
       <c r="O13">
-        <v>49.76455224670349</v>
+        <v>50.78015535377909</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-112.9815328474128</v>
+        <v>-71.5462281690246</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>-36.74171025750397</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-13.42287779125041</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>50.04610493787965</v>
+        <v>51.06745401824455</v>
       </c>
       <c r="M14">
-        <v>50.04610493787965</v>
+        <v>51.06745401824455</v>
       </c>
       <c r="N14">
-        <v>136.4893771033082</v>
+        <v>139.2748745952124</v>
       </c>
       <c r="O14">
-        <v>50.04610493787965</v>
+        <v>51.06745401824452</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-110.5256570391462</v>
+        <v>-67.43637480566525</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>-36.00561255416113</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-15.74495402015174</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>49.64020361081128</v>
+        <v>50.65326899062375</v>
       </c>
       <c r="M15">
-        <v>49.64020361081128</v>
+        <v>50.65326899062375</v>
       </c>
       <c r="N15">
-        <v>135.3823734840307</v>
+        <v>138.1452790653375</v>
       </c>
       <c r="O15">
-        <v>49.64020361081128</v>
+        <v>50.65326899062376</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-110.5491107230227</v>
+        <v>-65.90082688938367</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>-36.72505219675372</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-16.60696350584271</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.64408237560057</v>
+        <v>50.65722691387813</v>
       </c>
       <c r="M16">
-        <v>49.64408237560057</v>
+        <v>50.65722691387813</v>
       </c>
       <c r="N16">
-        <v>135.3929519334561</v>
+        <v>138.1560734014858</v>
       </c>
       <c r="O16">
-        <v>49.64408237560059</v>
+        <v>50.65722691387813</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-110.6988069874626</v>
+        <v>-64.51266693973224</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>-37.65916081090182</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-17.25</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>49.66883802146167</v>
+        <v>50.68248777700171</v>
       </c>
       <c r="M17">
-        <v>49.66883802146167</v>
+        <v>50.68248777700171</v>
       </c>
       <c r="N17">
-        <v>135.4604673312591</v>
+        <v>138.2249666645501</v>
       </c>
       <c r="O17">
-        <v>49.66883802146168</v>
+        <v>50.68248777700174</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-102.7419947093346</v>
+        <v>-57.31750392205134</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-37.56895584042388</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-16.67711630701876</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>48.35040023705209</v>
+        <v>49.33714309903274</v>
       </c>
       <c r="M18">
-        <v>48.35040023705209</v>
+        <v>49.33714309903274</v>
       </c>
       <c r="N18">
-        <v>131.864727919233</v>
+        <v>134.5558448155438</v>
       </c>
       <c r="O18">
-        <v>48.35040023705207</v>
+        <v>49.33714309903272</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-97.8167048190616</v>
+        <v>-54.12644504593231</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>-37.98697887434616</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-14.63768737995343</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>47.53163862255805</v>
+        <v>48.50167206383475</v>
       </c>
       <c r="M19">
-        <v>47.53163862255805</v>
+        <v>48.50167206383475</v>
       </c>
       <c r="N19">
-        <v>129.6317416978856</v>
+        <v>132.277287446822</v>
       </c>
       <c r="O19">
-        <v>47.53163862255806</v>
+        <v>48.50167206383475</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-97.85303225053346</v>
+        <v>-61.764826859816</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>-37.9049457827268</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-7.235178607835337</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>47.53768493237666</v>
+        <v>48.50784176773129</v>
       </c>
       <c r="M20">
-        <v>47.53768493237666</v>
+        <v>48.50784176773129</v>
       </c>
       <c r="N20">
-        <v>129.6482316337545</v>
+        <v>132.2941139119944</v>
       </c>
       <c r="O20">
-        <v>47.53768493237664</v>
+        <v>48.50784176773129</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-110.7132943262683</v>
+        <v>-80.84133812456298</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>-38.37765754439528</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-0.6650633631281266</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>49.67123372912566</v>
+        <v>50.68493237665884</v>
       </c>
       <c r="M21">
-        <v>49.67123372912566</v>
+        <v>50.68493237665884</v>
       </c>
       <c r="N21">
-        <v>135.4670010794336</v>
+        <v>138.2316337545241</v>
       </c>
       <c r="O21">
-        <v>49.67123372912565</v>
+        <v>50.68493237665882</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-123.2442078789831</v>
+        <v>-92.88025623809939</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-39.44408773544666</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-0.1155022372925032</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>51.73679006074459</v>
+        <v>52.79264291912713</v>
       </c>
       <c r="M22">
-        <v>51.73679006074459</v>
+        <v>52.79264291912713</v>
       </c>
       <c r="N22">
-        <v>141.1003365293034</v>
+        <v>143.9799352339831</v>
       </c>
       <c r="O22">
-        <v>51.73679006074457</v>
+        <v>52.79264291912716</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-132.8693568879351</v>
+        <v>-101.375560942861</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>-40.59443683631548</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-0.1084684472009485</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>53.31430651681588</v>
+        <v>54.40235358858764</v>
       </c>
       <c r="M23">
-        <v>53.31430651681588</v>
+        <v>54.40235358858764</v>
       </c>
       <c r="N23">
-        <v>145.4026541367706</v>
+        <v>148.3700552416026</v>
       </c>
       <c r="O23">
-        <v>53.31430651681586</v>
+        <v>54.40235358858763</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,7 +1455,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-136.4553514534733</v>
+        <v>-104.176868333314</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>-41.40376714635295</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-0.1012495573701813</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>53.9</v>
+        <v>55</v>
       </c>
       <c r="M24">
-        <v>53.9</v>
+        <v>55</v>
       </c>
       <c r="N24">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O24">
-        <v>53.89999999999998</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-117.7342820938041</v>
+        <v>-84.97308619446042</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-0.09884326075990657</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>50.83018583190467</v>
+        <v>51.86753656316803</v>
       </c>
       <c r="M25">
-        <v>50.83018583190467</v>
+        <v>51.86753656316803</v>
       </c>
       <c r="N25">
-        <v>138.6277795415582</v>
+        <v>141.4569178995492</v>
       </c>
       <c r="O25">
-        <v>50.83018583190466</v>
+        <v>51.86753656316802</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/p_mw.xlsx
+++ b/group2 project/results/res_bus/p_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,13 +415,16 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-34.07235526768176</v>
+        <v>10.25565284106347</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -462,13 +465,16 @@
       <c r="O2">
         <v>42.70727241941287</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>-45.15455305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-16.84468718035663</v>
+        <v>25.56139717932206</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -509,13 +515,16 @@
       <c r="O3">
         <v>39.78120303934642</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>-43.54636590999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-4.00261595342505</v>
+        <v>37.92753597380087</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -556,13 +565,16 @@
       <c r="O4">
         <v>37.43217558786802</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>-43.33751043999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.758325662124207</v>
+        <v>42.69886093924526</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -603,13 +615,16 @@
       <c r="O5">
         <v>36.18100620145194</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>-42.41854637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.87465396766234</v>
+        <v>44.73324635102907</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -650,13 +665,16 @@
       <c r="O6">
         <v>35.63411433530172</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>-42.37677527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.87465396766234</v>
+        <v>44.73324635102907</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -697,13 +715,16 @@
       <c r="O7">
         <v>35.63411433530172</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>-42.37677527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.92670076625933</v>
+        <v>48.60745554698789</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -744,13 +765,16 @@
       <c r="O8">
         <v>35.76949859250323</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>-47.47284879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-8.3802791329434</v>
+        <v>37.09490111773144</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -791,13 +815,16 @@
       <c r="O9">
         <v>37.71702965267636</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>-46.97159565999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-34.76599320240507</v>
+        <v>28.230029519254</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -838,13 +865,16 @@
       <c r="O10">
         <v>42.49214764958623</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>-64.76608186999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-60.29752499834723</v>
+        <v>23.53466285114936</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -865,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-37.89080214624073</v>
+        <v>-37.8908021462407</v>
       </c>
       <c r="J11">
         <v>-0.08088858605259475</v>
@@ -885,13 +915,16 @@
       <c r="O11">
         <v>47.00639194022904</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>-85.98579782999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-72.06528231819937</v>
+        <v>11.81427185734609</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -912,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-37.58184226477783</v>
+        <v>-37.58184226477786</v>
       </c>
       <c r="J12">
-        <v>-1.057104610861359</v>
+        <v>-1.05710461086133</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -932,13 +965,16 @@
       <c r="O12">
         <v>49.13563824158146</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>-85.50543023999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-75.35929950159148</v>
+        <v>3.945542634356116</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -959,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-37.23736614058328</v>
+        <v>-37.23736614058325</v>
       </c>
       <c r="J13">
-        <v>-7.595197600678148</v>
+        <v>-7.595197600678176</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -979,13 +1015,16 @@
       <c r="O13">
         <v>50.78015535377909</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>-80.53467001000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-71.5462281690246</v>
+        <v>-5.048542539997129</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1006,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-36.74171025750397</v>
+        <v>-36.741710257504</v>
       </c>
       <c r="J14">
         <v>-13.42287779125041</v>
@@ -1026,13 +1065,16 @@
       <c r="O14">
         <v>51.06745401824452</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>-67.23057643999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-67.43637480566525</v>
+        <v>-7.560231207676765</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1053,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-36.00561255416113</v>
+        <v>-36.00561255416116</v>
       </c>
       <c r="J15">
         <v>-15.74495402015174</v>
@@ -1073,13 +1115,16 @@
       <c r="O15">
         <v>50.65326899062376</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>-60.46365915000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-65.90082688938367</v>
+        <v>-11.56385472618024</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1100,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-36.72505219675372</v>
+        <v>-36.72505219675369</v>
       </c>
       <c r="J16">
         <v>-16.60696350584271</v>
@@ -1120,13 +1165,16 @@
       <c r="O16">
         <v>50.65722691387813</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>-54.76190476000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-64.51266693973224</v>
+        <v>-17.90411604109084</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1167,13 +1215,16 @@
       <c r="O17">
         <v>50.68248777700174</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>-46.82539682999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-57.31750392205134</v>
+        <v>-15.52337072334672</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1194,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-37.56895584042388</v>
+        <v>-37.56895584042385</v>
       </c>
       <c r="J18">
         <v>-16.67711630701876</v>
@@ -1214,13 +1265,16 @@
       <c r="O18">
         <v>49.33714309903272</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>-42.04260652000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-54.12644504593231</v>
+        <v>-5.054983894857315</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1241,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-37.98697887434616</v>
+        <v>-37.98697887434614</v>
       </c>
       <c r="J19">
         <v>-14.63768737995343</v>
@@ -1261,13 +1315,16 @@
       <c r="O19">
         <v>48.50167206383475</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>-49.62406014999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-61.764826859816</v>
+        <v>7.675398227179244</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1291,7 +1348,7 @@
         <v>-37.9049457827268</v>
       </c>
       <c r="J20">
-        <v>-7.235178607835337</v>
+        <v>-7.235178607835365</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1308,13 +1365,16 @@
       <c r="O20">
         <v>48.50784176773129</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>-70.65580618000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-80.84133812456298</v>
+        <v>16.97640281021762</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1335,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-38.37765754439528</v>
+        <v>-38.3776575443953</v>
       </c>
       <c r="J21">
         <v>-0.6650633631281266</v>
@@ -1355,13 +1415,16 @@
       <c r="O21">
         <v>50.68493237665882</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-92.88025623809939</v>
+        <v>0.2276924324921765</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1402,13 +1465,16 @@
       <c r="O22">
         <v>52.79264291912716</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>-94.34001670999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-101.375560942861</v>
+        <v>-8.995900116212141</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1429,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>-40.59443683631548</v>
+        <v>-40.59443683631545</v>
       </c>
       <c r="J23">
-        <v>-0.1084684472009485</v>
+        <v>-0.1084684472009769</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1449,13 +1515,16 @@
       <c r="O23">
         <v>54.40235358858763</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>-93.14954051999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-104.176868333314</v>
+        <v>-14.10389175877287</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1496,13 +1565,16 @@
       <c r="O24">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>-90.58061821000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-84.97308619446042</v>
+        <v>-11.65481375693986</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1526,7 +1598,7 @@
         <v>-42</v>
       </c>
       <c r="J25">
-        <v>-0.09884326075990657</v>
+        <v>-0.09884326075993499</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1542,6 +1614,9 @@
       </c>
       <c r="O25">
         <v>51.86753656316802</v>
+      </c>
+      <c r="P25">
+        <v>-73.83040936</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/p_mw.xlsx
+++ b/group2 project/results/res_bus/p_mw.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.25565284106347</v>
+        <v>-25.40887340864271</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>-0.09180947066840872</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-8.504271043156734</v>
       </c>
       <c r="L2">
         <v>42.70727241941287</v>
@@ -466,7 +466,7 @@
         <v>42.70727241941287</v>
       </c>
       <c r="P2">
-        <v>-45.15455305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.56139717932206</v>
+        <v>-9.64394602776602</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>-0.09106907171138801</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-7.095112050919226</v>
       </c>
       <c r="L3">
         <v>39.78120303934642</v>
@@ -516,7 +516,7 @@
         <v>39.78120303934642</v>
       </c>
       <c r="P3">
-        <v>-43.54636590999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>37.92753597380087</v>
+        <v>2.153725970982009</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>-0.0858862790123851</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-6.074843738942633</v>
       </c>
       <c r="L4">
         <v>37.43217558786801</v>
@@ -566,7 +566,7 @@
         <v>37.43217558786802</v>
       </c>
       <c r="P4">
-        <v>-43.33751043999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>42.69886093924526</v>
+        <v>7.675190590863053</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>-0.08681177770861837</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-5.852635915077997</v>
       </c>
       <c r="L5">
         <v>36.18100620145194</v>
@@ -616,7 +616,7 @@
         <v>36.18100620145194</v>
       </c>
       <c r="P5">
-        <v>-42.41854637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>44.73324635102907</v>
+        <v>9.747475504999613</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-36.68639292369173</v>
+        <v>-36.6863929236917</v>
       </c>
       <c r="J6">
         <v>-0.0866266779693774</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-5.817614692562785</v>
       </c>
       <c r="L6">
         <v>35.63411433530171</v>
@@ -666,7 +666,7 @@
         <v>35.63411433530172</v>
       </c>
       <c r="P6">
-        <v>-42.37677527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>44.73324635102907</v>
+        <v>9.747475504999613</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-36.68639292369173</v>
+        <v>-36.6863929236917</v>
       </c>
       <c r="J7">
         <v>-0.0866266779693774</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-5.817614692562785</v>
       </c>
       <c r="L7">
         <v>35.63411433530171</v>
@@ -716,7 +716,7 @@
         <v>35.63411433530172</v>
       </c>
       <c r="P7">
-        <v>-42.37677527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>48.60745554698789</v>
+        <v>8.464182992432029</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>-0.08366508214135138</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-5.467099543263146</v>
       </c>
       <c r="L8">
         <v>35.76949859250323</v>
@@ -766,7 +766,7 @@
         <v>35.76949859250323</v>
       </c>
       <c r="P8">
-        <v>-47.47284879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37.09490111773144</v>
+        <v>-1.762273440892187</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>-0.08403528161986173</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-6.542261679947899</v>
       </c>
       <c r="L9">
         <v>37.71702965267636</v>
@@ -816,7 +816,7 @@
         <v>37.71702965267636</v>
       </c>
       <c r="P9">
-        <v>-46.97159565999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.230029519254</v>
+        <v>-27.51394343482869</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>-0.0858862790123851</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-7.072043615305461</v>
       </c>
       <c r="L10">
         <v>42.49214764958622</v>
@@ -866,7 +866,7 @@
         <v>42.49214764958623</v>
       </c>
       <c r="P10">
-        <v>-64.76608186999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.53466285114936</v>
+        <v>-52.76202394170889</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-37.8908021462407</v>
+        <v>-37.89080214624073</v>
       </c>
       <c r="J11">
         <v>-0.08088858605259475</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-7.231394182294196</v>
       </c>
       <c r="L11">
         <v>47.00639194022902</v>
@@ -916,7 +916,7 @@
         <v>47.00639194022904</v>
       </c>
       <c r="P11">
-        <v>-85.98579782999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.81427185734609</v>
+        <v>-63.81488273139286</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-37.58184226477786</v>
+        <v>-37.58184226477783</v>
       </c>
       <c r="J12">
-        <v>-1.05710461086133</v>
+        <v>-1.057104610861359</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-7.881797967737555</v>
       </c>
       <c r="L12">
         <v>49.13563824158147</v>
@@ -966,7 +966,7 @@
         <v>49.13563824158146</v>
       </c>
       <c r="P12">
-        <v>-85.50543023999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.945542634356116</v>
+        <v>-69.20365556277824</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-37.23736614058325</v>
+        <v>-37.23736614058328</v>
       </c>
       <c r="J13">
-        <v>-7.595197600678176</v>
+        <v>-7.595197600678148</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-5.782883910790417</v>
       </c>
       <c r="L13">
         <v>50.78015535377907</v>
@@ -1016,7 +1016,7 @@
         <v>50.78015535377909</v>
       </c>
       <c r="P13">
-        <v>-80.53467001000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-5.048542539997129</v>
+        <v>-67.02653220143984</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-36.741710257504</v>
+        <v>-36.74171025750397</v>
       </c>
       <c r="J14">
         <v>-13.42287779125041</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-4.174537737862124</v>
       </c>
       <c r="L14">
         <v>51.06745401824455</v>
@@ -1066,7 +1066,7 @@
         <v>51.06745401824452</v>
       </c>
       <c r="P14">
-        <v>-67.23057643999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-7.560231207676765</v>
+        <v>-63.58953809277548</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>-15.74495402015174</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>-3.52140040597277</v>
       </c>
       <c r="L15">
         <v>50.65326899062375</v>
@@ -1116,7 +1116,7 @@
         <v>50.65326899062376</v>
       </c>
       <c r="P15">
-        <v>-60.46365915000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-11.56385472618024</v>
+        <v>-62.14561223517586</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-36.72505219675369</v>
+        <v>-36.72505219675367</v>
       </c>
       <c r="J16">
         <v>-16.60696350584271</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-3.431899567968571</v>
       </c>
       <c r="L16">
         <v>50.65722691387813</v>
@@ -1166,7 +1166,7 @@
         <v>50.65722691387813</v>
       </c>
       <c r="P16">
-        <v>-54.76190476000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-17.90411604109084</v>
+        <v>-60.56430305337895</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-37.65916081090182</v>
+        <v>-37.65916081090185</v>
       </c>
       <c r="J17">
         <v>-17.25</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-3.624411083407722</v>
       </c>
       <c r="L17">
         <v>50.68248777700171</v>
@@ -1216,7 +1216,7 @@
         <v>50.68248777700174</v>
       </c>
       <c r="P17">
-        <v>-46.82539682999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-15.52337072334672</v>
+        <v>-53.30288066213751</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-37.56895584042385</v>
+        <v>-37.56895584042388</v>
       </c>
       <c r="J18">
         <v>-16.67711630701876</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-3.713333277334982</v>
       </c>
       <c r="L18">
         <v>49.33714309903274</v>
@@ -1266,7 +1266,7 @@
         <v>49.33714309903272</v>
       </c>
       <c r="P18">
-        <v>-42.04260652000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-5.054983894857315</v>
+        <v>-50.24019819123859</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>-14.63768737995343</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-3.594416199966474</v>
       </c>
       <c r="L19">
         <v>48.50167206383475</v>
@@ -1316,7 +1316,7 @@
         <v>48.50167206383475</v>
       </c>
       <c r="P19">
-        <v>-49.62406014999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.675398227179244</v>
+        <v>-55.85030815884414</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-37.9049457827268</v>
+        <v>-37.90494578272683</v>
       </c>
       <c r="J20">
-        <v>-7.235178607835365</v>
+        <v>-7.235178607835337</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-5.599850307891757</v>
       </c>
       <c r="L20">
         <v>48.50784176773129</v>
@@ -1366,7 +1366,7 @@
         <v>48.50784176773129</v>
       </c>
       <c r="P20">
-        <v>-70.65580618000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.97640281021762</v>
+        <v>-73.05830267259171</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-38.3776575443953</v>
+        <v>-38.37765754439528</v>
       </c>
       <c r="J21">
         <v>-0.6650633631281266</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-7.367887259335873</v>
       </c>
       <c r="L21">
         <v>50.68493237665884</v>
@@ -1416,7 +1416,7 @@
         <v>50.68493237665882</v>
       </c>
       <c r="P21">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2276924324921765</v>
+        <v>-83.38331000566633</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0.1155022372925032</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-8.982671891145628</v>
       </c>
       <c r="L22">
         <v>52.79264291912713</v>
@@ -1466,7 +1466,7 @@
         <v>52.79264291912716</v>
       </c>
       <c r="P22">
-        <v>-94.34001670999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-8.995900116212141</v>
+        <v>-91.14333235009364</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>-40.59443683631545</v>
+        <v>-40.59443683631548</v>
       </c>
       <c r="J23">
-        <v>-0.1084684472009769</v>
+        <v>-0.1084684472009485</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-9.64230286375664</v>
       </c>
       <c r="L23">
         <v>54.40235358858764</v>
@@ -1516,7 +1516,7 @@
         <v>54.40235358858763</v>
       </c>
       <c r="P23">
-        <v>-93.14954051999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-14.10389175877287</v>
+        <v>-93.55568413886796</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>-0.1012495573701813</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L24">
         <v>55</v>
@@ -1566,7 +1566,7 @@
         <v>55</v>
       </c>
       <c r="P24">
-        <v>-90.58061821000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-11.65481375693986</v>
+        <v>-74.65133807926495</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-42</v>
+        <v>-42.00000000000003</v>
       </c>
       <c r="J25">
-        <v>-0.09884326075993499</v>
+        <v>-0.09884326075990657</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-9.842033943508056</v>
       </c>
       <c r="L25">
         <v>51.86753656316803</v>
@@ -1616,7 +1616,7 @@
         <v>51.86753656316802</v>
       </c>
       <c r="P25">
-        <v>-73.83040936</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/p_mw.xlsx
+++ b/group2 project/results/res_bus/p_mw.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-25.40887340864271</v>
+        <v>-33.79776967907753</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>-0.09180947066840872</v>
       </c>
       <c r="K2">
-        <v>-8.504271043156734</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>42.70727241941287</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-9.64394602776602</v>
+        <v>-16.57589304253133</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>-0.09106907171138801</v>
       </c>
       <c r="K3">
-        <v>-7.095112050919226</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>39.78120303934642</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.153725970982009</v>
+        <v>-3.739546201286657</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>-0.0858862790123851</v>
       </c>
       <c r="K4">
-        <v>-6.074843738942633</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>37.43217558786801</v>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.675190590863053</v>
+        <v>2.015120619451579</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>-0.08681177770861837</v>
       </c>
       <c r="K5">
-        <v>-5.852635915077997</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>36.18100620145194</v>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.747475504999613</v>
+        <v>4.127387506939471</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-36.6863929236917</v>
+        <v>-36.68639292369173</v>
       </c>
       <c r="J6">
         <v>-0.0866266779693774</v>
       </c>
       <c r="K6">
-        <v>-5.817614692562785</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>35.63411433530171</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.747475504999613</v>
+        <v>4.127387506939471</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-36.6863929236917</v>
+        <v>-36.68639292369173</v>
       </c>
       <c r="J7">
         <v>-0.0866266779693774</v>
       </c>
       <c r="K7">
-        <v>-5.817614692562785</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>35.63411433530171</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.464182992432029</v>
+        <v>3.178874857707797</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>-0.08366508214135138</v>
       </c>
       <c r="K8">
-        <v>-5.467099543263146</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>35.76949859250323</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.762273440892187</v>
+        <v>-8.126929238241303</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-36.17910782839053</v>
+        <v>-36.17910782839056</v>
       </c>
       <c r="J9">
         <v>-0.08403528161986173</v>
       </c>
       <c r="K9">
-        <v>-6.542261679947899</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>37.71702965267636</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-27.51394343482869</v>
+        <v>-34.49879428346088</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>-0.0858862790123851</v>
       </c>
       <c r="K10">
-        <v>-7.072043615305461</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>42.49214764958622</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-52.76202394170889</v>
+        <v>-60.01034101119308</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>-0.08088858605259475</v>
       </c>
       <c r="K11">
-        <v>-7.231394182294196</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>47.00639194022902</v>
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-63.81488273139286</v>
+        <v>-71.76806989927343</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>-1.057104610861359</v>
       </c>
       <c r="K12">
-        <v>-7.881797967737555</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>49.13563824158147</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-69.20365556277824</v>
+        <v>-75.05619390936548</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-37.23736614058328</v>
+        <v>-37.23736614058325</v>
       </c>
       <c r="J13">
         <v>-7.595197600678148</v>
       </c>
       <c r="K13">
-        <v>-5.782883910790417</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>50.78015535377907</v>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-67.02653220143984</v>
+        <v>-71.24547154173379</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>-13.42287779125041</v>
       </c>
       <c r="K14">
-        <v>-4.174537737862124</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>51.06745401824455</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-63.58953809277548</v>
+        <v>-67.14130586339917</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-36.00561255416116</v>
+        <v>-36.00561255416113</v>
       </c>
       <c r="J15">
         <v>-15.74495402015174</v>
       </c>
       <c r="K15">
-        <v>-3.52140040597277</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>50.65326899062375</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-62.14561223517586</v>
+        <v>-65.6038481443392</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-36.72505219675367</v>
+        <v>-36.72505219675369</v>
       </c>
       <c r="J16">
         <v>-16.60696350584271</v>
       </c>
       <c r="K16">
-        <v>-3.431899567968571</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>50.65722691387813</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-60.56430305337895</v>
+        <v>-64.21287019300769</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-37.65916081090185</v>
+        <v>-37.65916081090182</v>
       </c>
       <c r="J17">
         <v>-17.25</v>
       </c>
       <c r="K17">
-        <v>-3.624411083407722</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>50.68248777700171</v>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-53.30288066213751</v>
+        <v>-57.02513233280061</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-37.56895584042388</v>
+        <v>-37.56895584042385</v>
       </c>
       <c r="J18">
         <v>-16.67711630701876</v>
       </c>
       <c r="K18">
-        <v>-3.713333277334982</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>49.33714309903274</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-50.24019819123859</v>
+        <v>-53.83633321965641</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-37.98697887434614</v>
+        <v>-37.98697887434611</v>
       </c>
       <c r="J19">
         <v>-14.63768737995343</v>
       </c>
       <c r="K19">
-        <v>-3.594416199966474</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>48.50167206383475</v>
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-55.85030815884414</v>
+        <v>-61.47258285203563</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-37.90494578272683</v>
+        <v>-37.9049457827268</v>
       </c>
       <c r="J20">
         <v>-7.235178607835337</v>
       </c>
       <c r="K20">
-        <v>-5.599850307891757</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>48.50784176773129</v>
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-73.05830267259171</v>
+        <v>-80.53185158283752</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>-0.6650633631281266</v>
       </c>
       <c r="K21">
-        <v>-7.367887259335873</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>50.68493237665884</v>
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-83.38331000566633</v>
+        <v>-92.55200030213092</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0.1155022372925032</v>
       </c>
       <c r="K22">
-        <v>-8.982671891145628</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>52.79264291912713</v>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-91.14333235009364</v>
+        <v>-101.0304673417772</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>-0.1084684472009485</v>
       </c>
       <c r="K23">
-        <v>-9.64230286375664</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>54.40235358858764</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-93.55568413886796</v>
+        <v>-103.8239395132402</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>-0.1012495573701813</v>
       </c>
       <c r="K24">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>55</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-74.65133807926495</v>
+        <v>-84.64377263253711</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-42.00000000000003</v>
+        <v>-42</v>
       </c>
       <c r="J25">
         <v>-0.09884326075990657</v>
       </c>
       <c r="K25">
-        <v>-9.842033943508056</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>51.86753656316803</v>

--- a/group2 project/results/res_bus/p_mw.xlsx
+++ b/group2 project/results/res_bus/p_mw.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-33.79776967907753</v>
+        <v>-19.05088809060817</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>-0.09180947066840872</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-7.333333333333343</v>
       </c>
       <c r="L2">
         <v>42.70727241941287</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-16.57589304253133</v>
+        <v>-1.777663414725339</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>-0.09106907171138801</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-7.333333333333343</v>
       </c>
       <c r="L3">
         <v>39.78120303934642</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-3.739546201286657</v>
+        <v>0.1522293178118161</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>-0.0858862790123851</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.666666666666657</v>
       </c>
       <c r="L4">
         <v>37.43217558786801</v>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.015120619451579</v>
+        <v>2.221169754193852</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>-0.08681177770861837</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>7.333333333333343</v>
       </c>
       <c r="L5">
         <v>36.18100620145194</v>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.127387506939471</v>
+        <v>4.289544203869809</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-36.68639292369173</v>
+        <v>-36.6863929236917</v>
       </c>
       <c r="J6">
         <v>-0.0866266779693774</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>7.333333333333343</v>
       </c>
       <c r="L6">
         <v>35.63411433530171</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.127387506939471</v>
+        <v>15.26087022847696</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-36.68639292369173</v>
+        <v>-36.6863929236917</v>
       </c>
       <c r="J7">
         <v>-0.0866266779693774</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-3.666666666666657</v>
       </c>
       <c r="L7">
         <v>35.63411433530171</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.178874857707797</v>
+        <v>17.93987995906764</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>-0.08366508214135138</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-7.333333333333343</v>
       </c>
       <c r="L8">
         <v>35.76949859250323</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-8.126929238241303</v>
+        <v>10.13649656216057</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>-0.08403528161986173</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="L9">
         <v>37.71702965267636</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-34.49879428346088</v>
+        <v>-19.89296983070199</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>-0.0858862790123851</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-7.333333333333343</v>
       </c>
       <c r="L10">
         <v>42.49214764958622</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-60.01034101119308</v>
+        <v>-52.44123335746599</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-71.76806989927343</v>
+        <v>-64.00719282167165</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-75.05619390936548</v>
+        <v>-67.25603530169883</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-37.23736614058325</v>
+        <v>-37.23736614058328</v>
       </c>
       <c r="J13">
         <v>-7.595197600678148</v>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-71.24547154173379</v>
+        <v>-63.56512750605589</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-36.74171025750397</v>
+        <v>-36.741710257504</v>
       </c>
       <c r="J14">
         <v>-13.42287779125041</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-67.14130586339917</v>
+        <v>-59.59222878126275</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-65.6038481443392</v>
+        <v>-58.03568624059153</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-36.72505219675369</v>
+        <v>-36.72505219675372</v>
       </c>
       <c r="J16">
         <v>-16.60696350584271</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-64.21287019300769</v>
+        <v>-56.60720464534006</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-57.02513233280061</v>
+        <v>-49.53998385111981</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-37.56895584042385</v>
+        <v>-37.56895584042388</v>
       </c>
       <c r="J18">
         <v>-16.67711630701876</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-53.83633321965641</v>
+        <v>-46.36551164545335</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-37.98697887434611</v>
+        <v>-37.98697887434616</v>
       </c>
       <c r="J19">
         <v>-14.63768737995343</v>
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-61.47258285203563</v>
+        <v>-53.89163420216983</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-37.9049457827268</v>
+        <v>-37.90494578272683</v>
       </c>
       <c r="J20">
         <v>-7.235178607835337</v>
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-80.53185158283752</v>
+        <v>-72.51460329834299</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-92.55200030213092</v>
+        <v>-84.1261813121655</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-101.0304673417772</v>
+        <v>-92.24986939425389</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-103.8239395132402</v>
+        <v>-94.89035873264947</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-84.64377263253711</v>
+        <v>-76.27470972491619</v>
       </c>
       <c r="C25">
         <v>0</v>

--- a/group2 project/results/res_bus/p_mw.xlsx
+++ b/group2 project/results/res_bus/p_mw.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-19.05088809060817</v>
+        <v>-18.84761551611473</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.777663414725339</v>
+        <v>-1.557017206064529</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1522293178118161</v>
+        <v>0.3586898072596796</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.221169754193852</v>
+        <v>2.42130931526367</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.289544203869809</v>
+        <v>4.489374712105018</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.26087022847696</v>
+        <v>15.49025017839676</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.93987995906764</v>
+        <v>18.17790878329038</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.13649656216057</v>
+        <v>10.3675845361156</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-19.89296983070199</v>
+        <v>-19.69552273777981</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-52.44123335746599</v>
+        <v>-52.26237632495349</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-64.00719282167165</v>
+        <v>-63.82773632146177</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-67.25603530169883</v>
+        <v>-67.07750751751269</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-63.56512750605589</v>
+        <v>-63.38963396911004</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-59.59222878126275</v>
+        <v>-59.41941412923393</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-58.03568624059153</v>
+        <v>-57.86153978682387</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-56.60720464534006</v>
+        <v>-56.43112285542816</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-49.53998385111981</v>
+        <v>-49.36377664711154</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-46.36551164545335</v>
+        <v>-46.18761868785487</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-53.89163420216983</v>
+        <v>-53.71358902473526</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-72.51460329834299</v>
+        <v>-72.33047157877172</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-84.1261813121655</v>
+        <v>-83.93328975729355</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-92.24986939425389</v>
+        <v>-92.04840548889388</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-94.89035873264947</v>
+        <v>-94.68488722073516</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-76.27470972491619</v>
+        <v>-76.08070572768224</v>
       </c>
       <c r="C25">
         <v>0</v>

--- a/group2 project/results/res_bus/p_mw.xlsx
+++ b/group2 project/results/res_bus/p_mw.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-18.84761551611473</v>
+        <v>98.33082189154038</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-39.27027815818423</v>
+        <v>-157.0811126327369</v>
       </c>
       <c r="J2">
         <v>-0.09180947066840872</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.557017206064529</v>
+        <v>117.0706584358068</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-39.76939137462676</v>
+        <v>-159.0775654985071</v>
       </c>
       <c r="J3">
         <v>-0.09106907171138801</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3586898072596796</v>
+        <v>117.325339161175</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-39.21276070314079</v>
+        <v>-156.8510428125631</v>
       </c>
       <c r="J4">
         <v>-0.0858862790123851</v>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.42130931526367</v>
+        <v>115.0606543929562</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-37.75910917540352</v>
+        <v>-151.0364367016142</v>
       </c>
       <c r="J5">
         <v>-0.08681177770861837</v>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.489374712105018</v>
+        <v>113.9344408466623</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-36.6863929236917</v>
+        <v>-146.7455716947669</v>
       </c>
       <c r="J6">
         <v>-0.0866266779693774</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.49025017839676</v>
+        <v>124.9166644827703</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-36.6863929236917</v>
+        <v>-146.7455716947669</v>
       </c>
       <c r="J7">
         <v>-0.0866266779693774</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.17790878329038</v>
+        <v>127.0055097470711</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-36.48649619468827</v>
+        <v>-145.9459847787531</v>
       </c>
       <c r="J8">
         <v>-0.08366508214135138</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.3675845361156</v>
+        <v>118.2961956206209</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-36.17910782839056</v>
+        <v>-144.7164313135622</v>
       </c>
       <c r="J9">
         <v>-0.08403528161986173</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-19.69552273777981</v>
+        <v>91.28743648603427</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-37.18707765529936</v>
+        <v>-148.7483106211975</v>
       </c>
       <c r="J10">
         <v>-0.0858862790123851</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-52.26237632495349</v>
+        <v>60.87609920852447</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-37.89080214624073</v>
+        <v>-151.5632085849628</v>
       </c>
       <c r="J11">
         <v>-0.08088858605259475</v>
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-63.82773632146177</v>
+        <v>48.41386117890852</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-37.58184226477783</v>
+        <v>-150.3273690591114</v>
       </c>
       <c r="J12">
         <v>-1.057104610861359</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-67.07750751751269</v>
+        <v>44.14817850620693</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-37.23736614058328</v>
+        <v>-148.949464562333</v>
       </c>
       <c r="J13">
         <v>-7.595197600678148</v>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-63.38963396911004</v>
+        <v>46.35620485809864</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-36.741710257504</v>
+        <v>-146.9668410300159</v>
       </c>
       <c r="J14">
         <v>-13.42287779125041</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-59.41941412923393</v>
+        <v>48.12812539728429</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-36.00561255416113</v>
+        <v>-144.0224502166446</v>
       </c>
       <c r="J15">
         <v>-15.74495402015174</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-57.86153978682387</v>
+        <v>51.82599569214176</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-36.72505219675372</v>
+        <v>-146.9002087870148</v>
       </c>
       <c r="J16">
         <v>-16.60696350584271</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-56.43112285542816</v>
+        <v>56.03530794402536</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-37.65916081090182</v>
+        <v>-150.6366432436073</v>
       </c>
       <c r="J17">
         <v>-17.25</v>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-49.36377664711154</v>
+        <v>62.82017645987594</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-37.56895584042388</v>
+        <v>-150.2758233616954</v>
       </c>
       <c r="J18">
         <v>-16.67711630701876</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-46.18761868785487</v>
+        <v>67.23338340370105</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-37.98697887434616</v>
+        <v>-151.9479154973845</v>
       </c>
       <c r="J19">
         <v>-14.63768737995343</v>
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-53.71358902473526</v>
+        <v>59.47376180224251</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-37.90494578272683</v>
+        <v>-151.6197831309072</v>
       </c>
       <c r="J20">
         <v>-7.235178607835337</v>
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-72.33047157877172</v>
+        <v>42.2969152050116</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-38.37765754439528</v>
+        <v>-153.5106301775812</v>
       </c>
       <c r="J21">
         <v>-0.6650633631281266</v>
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-83.93328975729355</v>
+        <v>33.89216090204673</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>-39.44408773544666</v>
+        <v>-157.7763509417866</v>
       </c>
       <c r="J22">
         <v>-0.1155022372925032</v>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-92.04840548889388</v>
+        <v>29.21873965769328</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>-40.59443683631548</v>
+        <v>-162.3777473452619</v>
       </c>
       <c r="J23">
         <v>-0.1084684472009485</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-94.68488722073516</v>
+        <v>28.99733288624952</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-41.40376714635295</v>
+        <v>-165.6150685854118</v>
       </c>
       <c r="J24">
         <v>-0.1012495573701813</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-76.08070572768224</v>
+        <v>49.33643119517637</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-42</v>
+        <v>-168</v>
       </c>
       <c r="J25">
         <v>-0.09884326075990657</v>
